--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/ARIZONA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/ARIZONA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1211"/>
+  <dimension ref="A1:D1205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1615,7 +1615,7 @@
         <v>104</v>
       </c>
       <c r="D94">
-        <v>0.009553555024802499</v>
+        <v>0.0095535550248025</v>
       </c>
     </row>
     <row r="95">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C96">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C105">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C108">
@@ -2024,7 +2024,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C126">
@@ -2037,7 +2037,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C127">
@@ -2115,7 +2115,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C133">
@@ -2489,7 +2489,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C165">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C179">
@@ -2766,7 +2766,7 @@
         <v>104</v>
       </c>
       <c r="D181">
-        <v>0.009553555024802499</v>
+        <v>0.0095535550248025</v>
       </c>
     </row>
     <row r="182">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C192">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C195">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C202">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C204">
@@ -3162,12 +3162,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C212">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C216">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C221">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C229">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C234">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C240">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C251">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C258">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C274">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C279">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C289">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C295">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C299">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C306">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C311">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C313">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C314">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C315">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C319">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C325">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C328">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C334">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C339">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C345">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C350">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C357">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C362">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C365">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C379">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C381">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C383">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C386">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C396">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C402">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C404">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C409">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C414">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C415">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C417">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C418">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C419">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C423">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C424">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C429">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C438">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C439">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C440">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C445">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C452">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C454">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C464">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C465">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C472">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C478">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C479">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C488">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C494">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C499">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C500">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C502">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C504">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C507">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C509">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C510">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C515">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C517">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C518">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C524">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C525">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C529">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C530">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C533">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C534">
@@ -7638,7 +7638,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C554">
@@ -7664,7 +7664,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C556">
@@ -8709,7 +8709,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C636">
@@ -8813,7 +8813,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C644">
@@ -8891,7 +8891,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C650">
@@ -8904,7 +8904,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C651">
@@ -8995,7 +8995,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C658">
@@ -9052,7 +9052,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C662">
@@ -9065,7 +9065,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C663">
@@ -9117,7 +9117,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9182,7 +9182,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C672">
@@ -9356,7 +9356,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C685">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C689">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C693">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C697">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C699">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C702">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C705">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C710">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C712">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C752">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C765">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C776">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C783">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C801">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C804">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C806">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C807">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C820">
@@ -11355,7 +11355,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C838">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C842">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C843">
@@ -11472,7 +11472,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C847">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C861">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C862">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C865">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C873">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C876">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C889">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C896">
@@ -12140,7 +12140,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C898">
@@ -12192,7 +12192,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C902">
@@ -12205,7 +12205,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C903">
@@ -12244,7 +12244,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C906">
@@ -12283,7 +12283,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C909">
@@ -12488,7 +12488,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C924">
@@ -12540,7 +12540,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C928">
@@ -12579,7 +12579,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C931">
@@ -12644,7 +12644,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C936">
@@ -12657,7 +12657,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C937">
@@ -13181,7 +13181,7 @@
         <v>100</v>
       </c>
       <c r="D976">
-        <v>0.009186110600771633</v>
+        <v>0.009186110600771631</v>
       </c>
     </row>
     <row r="977">
@@ -13473,7 +13473,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C999">
@@ -13655,7 +13655,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1013">
@@ -13881,7 +13881,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1030">
@@ -14029,7 +14029,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1041">
@@ -14299,7 +14299,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1061">
@@ -14377,7 +14377,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1067">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1078">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1079">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1089">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1090">
@@ -14728,7 +14728,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1094">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1095">
@@ -14845,7 +14845,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1103">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1107">
@@ -14936,7 +14936,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1110">
@@ -14949,7 +14949,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1111">
@@ -15079,7 +15079,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1121">
@@ -15105,7 +15105,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1123">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1131">
@@ -15391,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1145">
@@ -15596,7 +15596,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1160">
@@ -15622,7 +15622,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1162">
@@ -15648,7 +15648,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1164">
@@ -15778,7 +15778,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1174">
@@ -15856,7 +15856,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1180">
@@ -15908,7 +15908,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1184">
@@ -15921,7 +15921,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1185">
@@ -15934,7 +15934,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1186">
@@ -16064,7 +16064,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1196">
@@ -16077,7 +16077,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1197">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1200">
@@ -16189,41 +16189,6 @@
       </c>
       <c r="D1205">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
